--- a/report.xlsx
+++ b/report.xlsx
@@ -733,19 +733,19 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="2" t="n">
         <v>91795</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
         <v>116651</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>18294</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2" t="n">
         <v>1115</v>
       </c>
     </row>

--- a/report.xlsx
+++ b/report.xlsx
@@ -489,8 +489,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>2007</v>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
       </c>
       <c r="B2" s="2" t="n">
         <v>38916</v>
@@ -506,8 +508,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>2008</v>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>43646</v>
@@ -523,8 +527,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2009</v>
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
       </c>
       <c r="B4" s="2" t="n">
         <v>42492</v>
@@ -540,8 +546,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>2010</v>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
       </c>
       <c r="B5" s="2" t="n">
         <v>43846</v>
@@ -557,8 +565,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>2011</v>
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
       </c>
       <c r="B6" s="2" t="n">
         <v>47451</v>
@@ -574,8 +584,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>2012</v>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
       </c>
       <c r="B7" s="2" t="n">
         <v>48243</v>
@@ -591,8 +603,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>2013</v>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
       </c>
       <c r="B8" s="2" t="n">
         <v>51510</v>
@@ -608,8 +622,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>2014</v>
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="B9" s="2" t="n">
         <v>50658</v>
@@ -625,8 +641,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>2015</v>
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="B10" s="2" t="n">
         <v>52696</v>
@@ -642,8 +660,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>2016</v>
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="B11" s="2" t="n">
         <v>62675</v>
@@ -659,8 +679,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>2017</v>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="B12" s="2" t="n">
         <v>60935</v>
@@ -676,8 +698,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>2018</v>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
       </c>
       <c r="B13" s="2" t="n">
         <v>58335</v>
@@ -693,8 +717,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>2019</v>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
       </c>
       <c r="B14" s="2" t="n">
         <v>69467</v>
@@ -710,8 +736,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>2020</v>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="B15" s="2" t="n">
         <v>73431</v>
@@ -727,8 +755,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>2021</v>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="B16" s="2" t="n">
         <v>82690</v>
@@ -744,8 +774,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>2022</v>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="B17" s="2" t="n">
         <v>91795</v>
@@ -779,11 +811,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="17" customWidth="1" min="2" max="2"/>
-    <col width="4" customWidth="1" min="3" max="3"/>
-    <col width="17" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="3" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
